--- a/data/pca/factorExposure/factorExposure_2015-11-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01592444570067809</v>
+        <v>0.01342102634588695</v>
       </c>
       <c r="C2">
-        <v>0.03083431336887475</v>
+        <v>0.03614200653687941</v>
       </c>
       <c r="D2">
-        <v>-0.09549420659887746</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1266995274574393</v>
+      </c>
+      <c r="E2">
+        <v>0.07169033023777158</v>
+      </c>
+      <c r="F2">
+        <v>0.02157557820435497</v>
+      </c>
+      <c r="G2">
+        <v>-0.07904675894607832</v>
+      </c>
+      <c r="H2">
+        <v>0.09183908582306544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01860511365907536</v>
+        <v>0.01057332188996402</v>
       </c>
       <c r="C3">
-        <v>0.05991135755426003</v>
+        <v>0.04412169226213631</v>
       </c>
       <c r="D3">
-        <v>-0.09690362953268668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0585632360613341</v>
+      </c>
+      <c r="E3">
+        <v>0.04255989481649808</v>
+      </c>
+      <c r="F3">
+        <v>0.04972511230731887</v>
+      </c>
+      <c r="G3">
+        <v>-0.09850853060243397</v>
+      </c>
+      <c r="H3">
+        <v>0.02469970681422658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05568389756869417</v>
+        <v>0.05337470196617297</v>
       </c>
       <c r="C4">
-        <v>0.04290740035192156</v>
+        <v>0.06620611301035823</v>
       </c>
       <c r="D4">
-        <v>-0.118263653140673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1417200689873274</v>
+      </c>
+      <c r="E4">
+        <v>0.05770603140139334</v>
+      </c>
+      <c r="F4">
+        <v>0.02269612716201571</v>
+      </c>
+      <c r="G4">
+        <v>0.03744570860996659</v>
+      </c>
+      <c r="H4">
+        <v>-0.01507675237010722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04171235361614421</v>
+        <v>0.03983736805420628</v>
       </c>
       <c r="C6">
-        <v>0.01449541102557598</v>
+        <v>0.02849471656596386</v>
       </c>
       <c r="D6">
-        <v>-0.1367698552937407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1384761405752607</v>
+      </c>
+      <c r="E6">
+        <v>0.03060189122813387</v>
+      </c>
+      <c r="F6">
+        <v>0.01538340227509185</v>
+      </c>
+      <c r="G6">
+        <v>-0.008228990590715137</v>
+      </c>
+      <c r="H6">
+        <v>0.02067137609471319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01841336568279476</v>
+        <v>0.01266790949378088</v>
       </c>
       <c r="C7">
-        <v>0.0173024495428791</v>
+        <v>0.03074135771357178</v>
       </c>
       <c r="D7">
-        <v>-0.09935639511707746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09598571599365904</v>
+      </c>
+      <c r="E7">
+        <v>0.02486186772003264</v>
+      </c>
+      <c r="F7">
+        <v>0.02308040987692594</v>
+      </c>
+      <c r="G7">
+        <v>-0.003682764918405896</v>
+      </c>
+      <c r="H7">
+        <v>0.1146390049816785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.009988706823004923</v>
+        <v>0.006752423953060533</v>
       </c>
       <c r="C8">
-        <v>0.0278622442163447</v>
+        <v>0.03765147060510911</v>
       </c>
       <c r="D8">
-        <v>-0.05994273527552253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07731338361083001</v>
+      </c>
+      <c r="E8">
+        <v>0.03562492065439181</v>
+      </c>
+      <c r="F8">
+        <v>0.04370561145610938</v>
+      </c>
+      <c r="G8">
+        <v>-0.01922389661946697</v>
+      </c>
+      <c r="H8">
+        <v>0.04439951054084805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04560997197895131</v>
+        <v>0.04248551769276373</v>
       </c>
       <c r="C9">
-        <v>0.04310965343925983</v>
+        <v>0.06236859954982498</v>
       </c>
       <c r="D9">
-        <v>-0.1082424856326064</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1208533323491939</v>
+      </c>
+      <c r="E9">
+        <v>0.04238525841073373</v>
+      </c>
+      <c r="F9">
+        <v>0.004439203241923448</v>
+      </c>
+      <c r="G9">
+        <v>0.02671495548412488</v>
+      </c>
+      <c r="H9">
+        <v>0.01249063068992393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09683955817983091</v>
+        <v>0.1430576170433162</v>
       </c>
       <c r="C10">
-        <v>-0.1898407923989608</v>
+        <v>-0.1887292565181015</v>
       </c>
       <c r="D10">
-        <v>0.004666871669898655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004771380257438619</v>
+      </c>
+      <c r="E10">
+        <v>0.04709772375112018</v>
+      </c>
+      <c r="F10">
+        <v>0.02610170419637634</v>
+      </c>
+      <c r="G10">
+        <v>0.02819174831218285</v>
+      </c>
+      <c r="H10">
+        <v>-0.005100632630909083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03308097642497212</v>
+        <v>0.02821913865173891</v>
       </c>
       <c r="C11">
-        <v>0.03710030011975098</v>
+        <v>0.04462704288336614</v>
       </c>
       <c r="D11">
-        <v>-0.05700473054239278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05830553921796842</v>
+      </c>
+      <c r="E11">
+        <v>-0.005679810713169529</v>
+      </c>
+      <c r="F11">
+        <v>0.001101385005491676</v>
+      </c>
+      <c r="G11">
+        <v>-0.002895873043489932</v>
+      </c>
+      <c r="H11">
+        <v>0.0494855346813802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03974368500042394</v>
+        <v>0.03334678241973735</v>
       </c>
       <c r="C12">
-        <v>0.03821420239062827</v>
+        <v>0.04625501978486004</v>
       </c>
       <c r="D12">
-        <v>-0.06098579066843374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05820594178387579</v>
+      </c>
+      <c r="E12">
+        <v>0.0008470912084878974</v>
+      </c>
+      <c r="F12">
+        <v>-0.007611256770556851</v>
+      </c>
+      <c r="G12">
+        <v>-0.004662564024252564</v>
+      </c>
+      <c r="H12">
+        <v>0.06081200502787194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01529990951166337</v>
+        <v>0.0165992280715261</v>
       </c>
       <c r="C13">
-        <v>0.03042690630519404</v>
+        <v>0.03749040566174851</v>
       </c>
       <c r="D13">
-        <v>-0.1271674519361569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1485393464089125</v>
+      </c>
+      <c r="E13">
+        <v>0.04062013943184294</v>
+      </c>
+      <c r="F13">
+        <v>0.0395645889685592</v>
+      </c>
+      <c r="G13">
+        <v>-0.01220934243594043</v>
+      </c>
+      <c r="H13">
+        <v>0.09978247131316564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.00732094282435406</v>
+        <v>0.00746269093085642</v>
       </c>
       <c r="C14">
-        <v>0.01340155285342285</v>
+        <v>0.02361222204948112</v>
       </c>
       <c r="D14">
-        <v>-0.08328108784262794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09243239307286083</v>
+      </c>
+      <c r="E14">
+        <v>0.03404661314680796</v>
+      </c>
+      <c r="F14">
+        <v>-0.002454463408957558</v>
+      </c>
+      <c r="G14">
+        <v>-0.01773252596099461</v>
+      </c>
+      <c r="H14">
+        <v>0.1038578632262557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002348035555832036</v>
+        <v>0.001408852341446882</v>
       </c>
       <c r="C15">
-        <v>0.002642708305508294</v>
+        <v>0.01157933618374482</v>
       </c>
       <c r="D15">
-        <v>-0.002751460368540626</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0348700610104067</v>
+      </c>
+      <c r="E15">
+        <v>0.008414422226988664</v>
+      </c>
+      <c r="F15">
+        <v>-0.0007465281195672087</v>
+      </c>
+      <c r="G15">
+        <v>-0.00887593853934197</v>
+      </c>
+      <c r="H15">
+        <v>0.01126341980381173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03319381287917861</v>
+        <v>0.02888617744325462</v>
       </c>
       <c r="C16">
-        <v>0.03960916295118926</v>
+        <v>0.04460634402441176</v>
       </c>
       <c r="D16">
-        <v>-0.06694847580310065</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06425172848001029</v>
+      </c>
+      <c r="E16">
+        <v>0.006458291703263678</v>
+      </c>
+      <c r="F16">
+        <v>-0.007878040434592948</v>
+      </c>
+      <c r="G16">
+        <v>-0.002805213380777038</v>
+      </c>
+      <c r="H16">
+        <v>0.06270303874749378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.009203543757002677</v>
+        <v>0.006180190086299228</v>
       </c>
       <c r="C19">
-        <v>0.02609887880945394</v>
+        <v>0.02202586187455693</v>
       </c>
       <c r="D19">
-        <v>-0.156097689271295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1198281563912831</v>
+      </c>
+      <c r="E19">
+        <v>0.06165637171391385</v>
+      </c>
+      <c r="F19">
+        <v>-0.002669001440324553</v>
+      </c>
+      <c r="G19">
+        <v>-0.02729339800461804</v>
+      </c>
+      <c r="H19">
+        <v>0.06653778430235441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0158280151100302</v>
+        <v>0.01518227285337888</v>
       </c>
       <c r="C20">
-        <v>0.02596292398601613</v>
+        <v>0.03346694116129272</v>
       </c>
       <c r="D20">
-        <v>-0.08545239055075075</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1011488689754886</v>
+      </c>
+      <c r="E20">
+        <v>0.05209545542039715</v>
+      </c>
+      <c r="F20">
+        <v>-0.001295658682915597</v>
+      </c>
+      <c r="G20">
+        <v>-0.00391698184462728</v>
+      </c>
+      <c r="H20">
+        <v>0.06408708551782988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.009663412448327994</v>
+        <v>0.01074743632243467</v>
       </c>
       <c r="C21">
-        <v>0.03031151792981598</v>
+        <v>0.03890881511550523</v>
       </c>
       <c r="D21">
-        <v>-0.1289050537772035</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1411592394823549</v>
+      </c>
+      <c r="E21">
+        <v>0.08174590581463584</v>
+      </c>
+      <c r="F21">
+        <v>0.002697967396788123</v>
+      </c>
+      <c r="G21">
+        <v>0.0146907515668463</v>
+      </c>
+      <c r="H21">
+        <v>0.1175812170362704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.007129160272802777</v>
+        <v>0.00562902919540659</v>
       </c>
       <c r="C22">
-        <v>0.02821400152532051</v>
+        <v>0.04193114995457844</v>
       </c>
       <c r="D22">
-        <v>-0.09594142394703993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1511068077419271</v>
+      </c>
+      <c r="E22">
+        <v>0.03300037000081474</v>
+      </c>
+      <c r="F22">
+        <v>0.08693303685897159</v>
+      </c>
+      <c r="G22">
+        <v>-0.07452444655890916</v>
+      </c>
+      <c r="H22">
+        <v>-0.06791579229702134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.007253521786240698</v>
+        <v>0.005733470034098643</v>
       </c>
       <c r="C23">
-        <v>0.02814290100355472</v>
+        <v>0.04238481468429064</v>
       </c>
       <c r="D23">
-        <v>-0.09522028482113172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1505081098647136</v>
+      </c>
+      <c r="E23">
+        <v>0.033315166646991</v>
+      </c>
+      <c r="F23">
+        <v>0.08690226117638132</v>
+      </c>
+      <c r="G23">
+        <v>-0.07363249529751657</v>
+      </c>
+      <c r="H23">
+        <v>-0.06801588290037648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03676383307965832</v>
+        <v>0.0306677177592202</v>
       </c>
       <c r="C24">
-        <v>0.04846517114913118</v>
+        <v>0.05626514943932026</v>
       </c>
       <c r="D24">
-        <v>-0.0653360708044914</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06631458239430107</v>
+      </c>
+      <c r="E24">
+        <v>0.01343857276782289</v>
+      </c>
+      <c r="F24">
+        <v>-0.004283466922809057</v>
+      </c>
+      <c r="G24">
+        <v>0.002979361093419635</v>
+      </c>
+      <c r="H24">
+        <v>0.07610281281768295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04014390209058872</v>
+        <v>0.03485144633388902</v>
       </c>
       <c r="C25">
-        <v>0.04715615729775514</v>
+        <v>0.05347342379364532</v>
       </c>
       <c r="D25">
-        <v>-0.06543372382653816</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06359773872907291</v>
+      </c>
+      <c r="E25">
+        <v>0.01352044393909684</v>
+      </c>
+      <c r="F25">
+        <v>0.0006931110636945929</v>
+      </c>
+      <c r="G25">
+        <v>0.002135071407221249</v>
+      </c>
+      <c r="H25">
+        <v>0.05588138415287081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01878076542065148</v>
+        <v>0.01823893569853736</v>
       </c>
       <c r="C26">
-        <v>0.006926089146640642</v>
+        <v>0.01751773358982292</v>
       </c>
       <c r="D26">
-        <v>-0.05397130376640272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06487722724157319</v>
+      </c>
+      <c r="E26">
+        <v>0.02352283502555293</v>
+      </c>
+      <c r="F26">
+        <v>0.00557207259844982</v>
+      </c>
+      <c r="G26">
+        <v>-0.007590865662897175</v>
+      </c>
+      <c r="H26">
+        <v>0.0667263717231024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1449730364566244</v>
+        <v>0.2022669129247505</v>
       </c>
       <c r="C28">
-        <v>-0.2701201365845856</v>
+        <v>-0.2516592202092267</v>
       </c>
       <c r="D28">
-        <v>0.03865853944640628</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01322732405997756</v>
+      </c>
+      <c r="E28">
+        <v>0.07712931835915229</v>
+      </c>
+      <c r="F28">
+        <v>0.005434657660969532</v>
+      </c>
+      <c r="G28">
+        <v>0.05642728032801957</v>
+      </c>
+      <c r="H28">
+        <v>0.0116714638728366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.004130363347444482</v>
+        <v>0.005175458046620034</v>
       </c>
       <c r="C29">
-        <v>0.01578828257074014</v>
+        <v>0.02216066302401993</v>
       </c>
       <c r="D29">
-        <v>-0.06896191642382388</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.08829892779879407</v>
+      </c>
+      <c r="E29">
+        <v>0.03062544593351794</v>
+      </c>
+      <c r="F29">
+        <v>0.01291632248516575</v>
+      </c>
+      <c r="G29">
+        <v>0.0007090881180781858</v>
+      </c>
+      <c r="H29">
+        <v>0.1099334127029285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03776505028621602</v>
+        <v>0.04142873298567504</v>
       </c>
       <c r="C30">
-        <v>0.03521308224435978</v>
+        <v>0.06098925363079657</v>
       </c>
       <c r="D30">
-        <v>-0.167585677766495</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1800714180110884</v>
+      </c>
+      <c r="E30">
+        <v>0.02056458522409952</v>
+      </c>
+      <c r="F30">
+        <v>0.01205153247682805</v>
+      </c>
+      <c r="G30">
+        <v>-0.02098661765780412</v>
+      </c>
+      <c r="H30">
+        <v>0.01568252328596561</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06748514320416032</v>
+        <v>0.05422098011295052</v>
       </c>
       <c r="C31">
-        <v>0.04838095754092691</v>
+        <v>0.07369653974969208</v>
       </c>
       <c r="D31">
-        <v>-0.06496119411864471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05257491798970423</v>
+      </c>
+      <c r="E31">
+        <v>0.02931918549926602</v>
+      </c>
+      <c r="F31">
+        <v>0.03198719655256257</v>
+      </c>
+      <c r="G31">
+        <v>0.01545483200958107</v>
+      </c>
+      <c r="H31">
+        <v>0.04577563481944446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.004490018889477481</v>
+        <v>0.01126294502532535</v>
       </c>
       <c r="C32">
-        <v>0.02017382703592258</v>
+        <v>0.01861257130764593</v>
       </c>
       <c r="D32">
-        <v>-0.06266369975851455</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1081533083736332</v>
+      </c>
+      <c r="E32">
+        <v>0.09370963688862062</v>
+      </c>
+      <c r="F32">
+        <v>0.01147345353283171</v>
+      </c>
+      <c r="G32">
+        <v>0.01315491293427003</v>
+      </c>
+      <c r="H32">
+        <v>0.1018283339780362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02369217580046258</v>
+        <v>0.02294839145947564</v>
       </c>
       <c r="C33">
-        <v>0.03038855832374422</v>
+        <v>0.04395192673128916</v>
       </c>
       <c r="D33">
-        <v>-0.1322826107128577</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1333214056109727</v>
+      </c>
+      <c r="E33">
+        <v>0.04271747315649798</v>
+      </c>
+      <c r="F33">
+        <v>0.0177977694520761</v>
+      </c>
+      <c r="G33">
+        <v>-0.008294604185956657</v>
+      </c>
+      <c r="H33">
+        <v>0.07177767292106901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03434222186762508</v>
+        <v>0.02667294159693222</v>
       </c>
       <c r="C34">
-        <v>0.06037622807324942</v>
+        <v>0.06108840819838288</v>
       </c>
       <c r="D34">
-        <v>-0.06864292804427233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05594500215267161</v>
+      </c>
+      <c r="E34">
+        <v>-0.004410023832333619</v>
+      </c>
+      <c r="F34">
+        <v>-0.009996328249382116</v>
+      </c>
+      <c r="G34">
+        <v>-0.006514654143663626</v>
+      </c>
+      <c r="H34">
+        <v>0.07670165829217172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0008772508263079477</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0008916841050409463</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.005629869119828616</v>
+      </c>
+      <c r="E35">
+        <v>0.001389055646687588</v>
+      </c>
+      <c r="F35">
+        <v>0.0005281897620255514</v>
+      </c>
+      <c r="G35">
+        <v>-0.001442142085753435</v>
+      </c>
+      <c r="H35">
+        <v>0.002511426347990883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01984329489516294</v>
+        <v>0.01916709199124482</v>
       </c>
       <c r="C36">
-        <v>0.002954963525918948</v>
+        <v>0.01394370467133924</v>
       </c>
       <c r="D36">
-        <v>-0.07083208922158382</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07700532451808939</v>
+      </c>
+      <c r="E36">
+        <v>0.03062531398608316</v>
+      </c>
+      <c r="F36">
+        <v>0.003136252530262027</v>
+      </c>
+      <c r="G36">
+        <v>0.005454553608910218</v>
+      </c>
+      <c r="H36">
+        <v>0.05878497468120663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02074483558775483</v>
+        <v>0.02031021737572281</v>
       </c>
       <c r="C38">
-        <v>0.01353494420276106</v>
+        <v>0.01994042627254767</v>
       </c>
       <c r="D38">
-        <v>-0.053423943115627</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06071267268345076</v>
+      </c>
+      <c r="E38">
+        <v>0.03461981007482258</v>
+      </c>
+      <c r="F38">
+        <v>-0.00801093800747703</v>
+      </c>
+      <c r="G38">
+        <v>-0.04069672030612042</v>
+      </c>
+      <c r="H38">
+        <v>0.03769016094886105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03910080171334412</v>
+        <v>0.03505554543898871</v>
       </c>
       <c r="C39">
-        <v>0.04921682936523711</v>
+        <v>0.06699479779808457</v>
       </c>
       <c r="D39">
-        <v>-0.08895407599913058</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1040825667480955</v>
+      </c>
+      <c r="E39">
+        <v>0.007739107902486037</v>
+      </c>
+      <c r="F39">
+        <v>-0.02584840529256029</v>
+      </c>
+      <c r="G39">
+        <v>-0.005756202213677414</v>
+      </c>
+      <c r="H39">
+        <v>0.09629819616610565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01762611850736206</v>
+        <v>0.01228576439948306</v>
       </c>
       <c r="C40">
-        <v>0.04628761131536691</v>
+        <v>0.04096593734651283</v>
       </c>
       <c r="D40">
-        <v>-0.07325084482451297</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08087037278314869</v>
+      </c>
+      <c r="E40">
+        <v>0.05928802731717408</v>
+      </c>
+      <c r="F40">
+        <v>0.07141535931728894</v>
+      </c>
+      <c r="G40">
+        <v>-0.07632110999197103</v>
+      </c>
+      <c r="H40">
+        <v>0.1581161074879574</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02508877120062071</v>
+        <v>0.02382703604029578</v>
       </c>
       <c r="C41">
-        <v>-0.002084309630773128</v>
+        <v>0.008348029733562634</v>
       </c>
       <c r="D41">
-        <v>-0.06513621357152417</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0560155931063713</v>
+      </c>
+      <c r="E41">
+        <v>0.05371578802694552</v>
+      </c>
+      <c r="F41">
+        <v>0.003102741378780921</v>
+      </c>
+      <c r="G41">
+        <v>-0.01977424960968868</v>
+      </c>
+      <c r="H41">
+        <v>0.0457200140000107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.02985728542763279</v>
+        <v>0.02356009631250573</v>
       </c>
       <c r="C43">
-        <v>0.007535672557338747</v>
+        <v>0.01850053482576845</v>
       </c>
       <c r="D43">
-        <v>-0.1007889631207808</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08349998137937824</v>
+      </c>
+      <c r="E43">
+        <v>0.0310564076406741</v>
+      </c>
+      <c r="F43">
+        <v>0.006084522607346318</v>
+      </c>
+      <c r="G43">
+        <v>-0.01861461026658569</v>
+      </c>
+      <c r="H43">
+        <v>0.06992559100976356</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01361257097159869</v>
+        <v>0.01563973983045198</v>
       </c>
       <c r="C44">
-        <v>0.04479318234067779</v>
+        <v>0.04240078626289343</v>
       </c>
       <c r="D44">
-        <v>-0.0769769201312966</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09878280373025312</v>
+      </c>
+      <c r="E44">
+        <v>0.06286552977120283</v>
+      </c>
+      <c r="F44">
+        <v>0.01158124723289932</v>
+      </c>
+      <c r="G44">
+        <v>-0.0107490201083314</v>
+      </c>
+      <c r="H44">
+        <v>0.07684045324767294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01802999702955072</v>
+        <v>0.0140459065542449</v>
       </c>
       <c r="C46">
-        <v>0.01354930905000616</v>
+        <v>0.02948712836725507</v>
       </c>
       <c r="D46">
-        <v>-0.07417209417747261</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08744100864735138</v>
+      </c>
+      <c r="E46">
+        <v>0.03456424749230864</v>
+      </c>
+      <c r="F46">
+        <v>-0.01367012415585684</v>
+      </c>
+      <c r="G46">
+        <v>0.007552376317686043</v>
+      </c>
+      <c r="H46">
+        <v>0.111810976809671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09698203399031785</v>
+        <v>0.08100830797563933</v>
       </c>
       <c r="C47">
-        <v>0.06674150283819491</v>
+        <v>0.09041378997613037</v>
       </c>
       <c r="D47">
-        <v>-0.04438689370538105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03339604076135269</v>
+      </c>
+      <c r="E47">
+        <v>0.03775542868942701</v>
+      </c>
+      <c r="F47">
+        <v>0.0215868251323333</v>
+      </c>
+      <c r="G47">
+        <v>0.03341091827716153</v>
+      </c>
+      <c r="H47">
+        <v>0.01049089345278421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01365805216841605</v>
+        <v>0.01607829895496353</v>
       </c>
       <c r="C48">
-        <v>0.0139233429226299</v>
+        <v>0.01898202430202998</v>
       </c>
       <c r="D48">
-        <v>-0.06333432483190098</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07351416169714664</v>
+      </c>
+      <c r="E48">
+        <v>0.04909865276380773</v>
+      </c>
+      <c r="F48">
+        <v>-0.0003361126001851186</v>
+      </c>
+      <c r="G48">
+        <v>0.002314356294597157</v>
+      </c>
+      <c r="H48">
+        <v>0.06577907226495724</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.06176840346255447</v>
+        <v>0.05216106546538535</v>
       </c>
       <c r="C50">
-        <v>0.05020909059881162</v>
+        <v>0.06724521068953393</v>
       </c>
       <c r="D50">
-        <v>-0.0646385284236265</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05595464834041795</v>
+      </c>
+      <c r="E50">
+        <v>0.04157115275955033</v>
+      </c>
+      <c r="F50">
+        <v>0.03909446767935749</v>
+      </c>
+      <c r="G50">
+        <v>-0.02104591802854434</v>
+      </c>
+      <c r="H50">
+        <v>0.04065587786018561</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01140304069219722</v>
+        <v>0.01119910858779603</v>
       </c>
       <c r="C51">
-        <v>0.01575131112924915</v>
+        <v>0.02114067314471093</v>
       </c>
       <c r="D51">
-        <v>-0.07892730130739924</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09041646881223513</v>
+      </c>
+      <c r="E51">
+        <v>0.0149590899081533</v>
+      </c>
+      <c r="F51">
+        <v>0.003760052777527018</v>
+      </c>
+      <c r="G51">
+        <v>-0.01906076842187014</v>
+      </c>
+      <c r="H51">
+        <v>0.07771971138559292</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09060445810865002</v>
+        <v>0.08571606008276902</v>
       </c>
       <c r="C53">
-        <v>0.08620830173068984</v>
+        <v>0.101424057395394</v>
       </c>
       <c r="D53">
-        <v>-0.004690750380300597</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0137147391708085</v>
+      </c>
+      <c r="E53">
+        <v>0.1126566695466998</v>
+      </c>
+      <c r="F53">
+        <v>0.04417039855164871</v>
+      </c>
+      <c r="G53">
+        <v>0.08050918613312111</v>
+      </c>
+      <c r="H53">
+        <v>0.0105878397848615</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02882326793678112</v>
+        <v>0.02540487745783923</v>
       </c>
       <c r="C54">
-        <v>0.02792376213976243</v>
+        <v>0.0353107781160492</v>
       </c>
       <c r="D54">
-        <v>-0.09034939512919306</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08826800852765762</v>
+      </c>
+      <c r="E54">
+        <v>0.03754403089615502</v>
+      </c>
+      <c r="F54">
+        <v>-0.01090729235179852</v>
+      </c>
+      <c r="G54">
+        <v>-0.02810773574220302</v>
+      </c>
+      <c r="H54">
+        <v>0.1131353230448749</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09390719375303419</v>
+        <v>0.08411055416435365</v>
       </c>
       <c r="C55">
-        <v>0.05724610533120152</v>
+        <v>0.08062044515151302</v>
       </c>
       <c r="D55">
-        <v>0.01566260342311153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008008747460047672</v>
+      </c>
+      <c r="E55">
+        <v>0.06112384304570661</v>
+      </c>
+      <c r="F55">
+        <v>0.04058760357713022</v>
+      </c>
+      <c r="G55">
+        <v>0.04160725978957912</v>
+      </c>
+      <c r="H55">
+        <v>-0.0001943685160450505</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1416271576170145</v>
+        <v>0.1282479048092914</v>
       </c>
       <c r="C56">
-        <v>0.09200769292762455</v>
+        <v>0.1252289879158102</v>
       </c>
       <c r="D56">
-        <v>0.007772576296229928</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01137802993844584</v>
+      </c>
+      <c r="E56">
+        <v>0.06438057142115117</v>
+      </c>
+      <c r="F56">
+        <v>0.0304699928423182</v>
+      </c>
+      <c r="G56">
+        <v>0.04068989452933176</v>
+      </c>
+      <c r="H56">
+        <v>-0.007211521236263715</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.01809738694910116</v>
+        <v>0.0269814518996492</v>
       </c>
       <c r="C58">
-        <v>-0.003843641793296783</v>
+        <v>0.02920173160063475</v>
       </c>
       <c r="D58">
-        <v>-0.3028639389024581</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3553239368748531</v>
+      </c>
+      <c r="E58">
+        <v>0.1904486706795222</v>
+      </c>
+      <c r="F58">
+        <v>0.1316481829491205</v>
+      </c>
+      <c r="G58">
+        <v>-0.2177184628722584</v>
+      </c>
+      <c r="H58">
+        <v>-0.3775387120836066</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1376746299303153</v>
+        <v>0.1794708921449437</v>
       </c>
       <c r="C59">
-        <v>-0.1947359254747298</v>
+        <v>-0.1681336686197832</v>
       </c>
       <c r="D59">
-        <v>-0.02681077341496255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05047314616937438</v>
+      </c>
+      <c r="E59">
+        <v>0.01679883826345349</v>
+      </c>
+      <c r="F59">
+        <v>-0.0438762190869986</v>
+      </c>
+      <c r="G59">
+        <v>-0.002406632478417477</v>
+      </c>
+      <c r="H59">
+        <v>-0.02673051790379995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2491581427036741</v>
+        <v>0.2291986773338474</v>
       </c>
       <c r="C60">
-        <v>0.0574273793836584</v>
+        <v>0.105040249532098</v>
       </c>
       <c r="D60">
-        <v>-0.208083299604895</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1190545451346935</v>
+      </c>
+      <c r="E60">
+        <v>-0.3581012199136727</v>
+      </c>
+      <c r="F60">
+        <v>0.03060627384085791</v>
+      </c>
+      <c r="G60">
+        <v>0.04483471242381191</v>
+      </c>
+      <c r="H60">
+        <v>-0.1378835317624687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04578860295334589</v>
+        <v>0.03978111871733269</v>
       </c>
       <c r="C61">
-        <v>0.04942440040337313</v>
+        <v>0.06193841495617519</v>
       </c>
       <c r="D61">
-        <v>-0.0985805086447005</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09184913518132014</v>
+      </c>
+      <c r="E61">
+        <v>0.001747135382856512</v>
+      </c>
+      <c r="F61">
+        <v>-0.018167445164657</v>
+      </c>
+      <c r="G61">
+        <v>0.003900667739430903</v>
+      </c>
+      <c r="H61">
+        <v>0.07786573845755466</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.017303642227526</v>
+        <v>0.01487879241683515</v>
       </c>
       <c r="C63">
-        <v>0.02184855567774165</v>
+        <v>0.03261817517390955</v>
       </c>
       <c r="D63">
-        <v>-0.0599008825783687</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06807415824698085</v>
+      </c>
+      <c r="E63">
+        <v>0.02857427722735933</v>
+      </c>
+      <c r="F63">
+        <v>0.01792505147988393</v>
+      </c>
+      <c r="G63">
+        <v>-0.004512453939929603</v>
+      </c>
+      <c r="H63">
+        <v>0.05544229266206662</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05926516829047351</v>
+        <v>0.05207367268205961</v>
       </c>
       <c r="C64">
-        <v>0.06415394931659556</v>
+        <v>0.08179951256323358</v>
       </c>
       <c r="D64">
-        <v>-0.06037891699393687</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05561869618320212</v>
+      </c>
+      <c r="E64">
+        <v>0.02375044248920328</v>
+      </c>
+      <c r="F64">
+        <v>-0.01367738848678776</v>
+      </c>
+      <c r="G64">
+        <v>0.05212343941222108</v>
+      </c>
+      <c r="H64">
+        <v>0.06539122386489557</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.04792548870679494</v>
+        <v>0.04510883157539301</v>
       </c>
       <c r="C65">
-        <v>0.007746164723745471</v>
+        <v>0.02689554949333588</v>
       </c>
       <c r="D65">
-        <v>-0.112474919074072</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1170286832969222</v>
+      </c>
+      <c r="E65">
+        <v>0.004269352093523696</v>
+      </c>
+      <c r="F65">
+        <v>0.01863138948326677</v>
+      </c>
+      <c r="G65">
+        <v>-0.02836600589978726</v>
+      </c>
+      <c r="H65">
+        <v>-0.02559820625252591</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04411725556941644</v>
+        <v>0.0393166399922251</v>
       </c>
       <c r="C66">
-        <v>0.05594667730746061</v>
+        <v>0.07664154990233851</v>
       </c>
       <c r="D66">
-        <v>-0.1114417499670511</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1314622068649433</v>
+      </c>
+      <c r="E66">
+        <v>0.01416558007295799</v>
+      </c>
+      <c r="F66">
+        <v>-0.01233964645424359</v>
+      </c>
+      <c r="G66">
+        <v>-0.01688008571564925</v>
+      </c>
+      <c r="H66">
+        <v>0.05669707471397342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04079253371241418</v>
+        <v>0.03782099557684169</v>
       </c>
       <c r="C67">
-        <v>0.0170648518151339</v>
+        <v>0.02613329997147331</v>
       </c>
       <c r="D67">
-        <v>-0.02368415079759882</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02080675373754293</v>
+      </c>
+      <c r="E67">
+        <v>0.01304618701132774</v>
+      </c>
+      <c r="F67">
+        <v>-0.006993069093269284</v>
+      </c>
+      <c r="G67">
+        <v>-0.03626475187586845</v>
+      </c>
+      <c r="H67">
+        <v>0.03754737441129343</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1552770458224839</v>
+        <v>0.1954998316357872</v>
       </c>
       <c r="C68">
-        <v>-0.2362854278269483</v>
+        <v>-0.1967311726924729</v>
       </c>
       <c r="D68">
-        <v>0.02211435569005335</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.009725355605116219</v>
+      </c>
+      <c r="E68">
+        <v>0.04993583911932013</v>
+      </c>
+      <c r="F68">
+        <v>0.02882622685041498</v>
+      </c>
+      <c r="G68">
+        <v>-0.01177118994944397</v>
+      </c>
+      <c r="H68">
+        <v>-0.00154670091995167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08677440184157867</v>
+        <v>0.07283822215780769</v>
       </c>
       <c r="C69">
-        <v>0.0829929696087697</v>
+        <v>0.09653041705927731</v>
       </c>
       <c r="D69">
-        <v>-0.06637742112961309</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04693357698837183</v>
+      </c>
+      <c r="E69">
+        <v>0.02234172573350384</v>
+      </c>
+      <c r="F69">
+        <v>0.00734632480529669</v>
+      </c>
+      <c r="G69">
+        <v>0.02586470742396675</v>
+      </c>
+      <c r="H69">
+        <v>0.02896425717470095</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1370764595178484</v>
+        <v>0.1844680971258426</v>
       </c>
       <c r="C71">
-        <v>-0.2418772408815</v>
+        <v>-0.2090898660489165</v>
       </c>
       <c r="D71">
-        <v>-0.01528997454274033</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0381517878031132</v>
+      </c>
+      <c r="E71">
+        <v>0.05566619202178609</v>
+      </c>
+      <c r="F71">
+        <v>0.03411958518472925</v>
+      </c>
+      <c r="G71">
+        <v>0.01079239743296639</v>
+      </c>
+      <c r="H71">
+        <v>0.02176266413578068</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.0982243604827792</v>
+        <v>0.09847309991513548</v>
       </c>
       <c r="C72">
-        <v>0.03997717701591941</v>
+        <v>0.07189148919498627</v>
       </c>
       <c r="D72">
-        <v>-0.0879111481393029</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09465036222361271</v>
+      </c>
+      <c r="E72">
+        <v>-0.03137033641005382</v>
+      </c>
+      <c r="F72">
+        <v>0.04041325297966476</v>
+      </c>
+      <c r="G72">
+        <v>0.03339299096715913</v>
+      </c>
+      <c r="H72">
+        <v>0.0454289736682793</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2685362977293909</v>
+        <v>0.242593023335188</v>
       </c>
       <c r="C73">
-        <v>0.01116198202680864</v>
+        <v>0.09243030248822</v>
       </c>
       <c r="D73">
-        <v>-0.3261712342338793</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1698593924258457</v>
+      </c>
+      <c r="E73">
+        <v>-0.6652288359164663</v>
+      </c>
+      <c r="F73">
+        <v>0.01858334814191625</v>
+      </c>
+      <c r="G73">
+        <v>0.04565686394772921</v>
+      </c>
+      <c r="H73">
+        <v>-0.1603374358695972</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1099242002365907</v>
+        <v>0.09757781301536986</v>
       </c>
       <c r="C74">
-        <v>0.06819589406022757</v>
+        <v>0.09116245598690235</v>
       </c>
       <c r="D74">
-        <v>-0.00429647661770788</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.005542217974648889</v>
+      </c>
+      <c r="E74">
+        <v>0.07960962363327335</v>
+      </c>
+      <c r="F74">
+        <v>0.06440850471860171</v>
+      </c>
+      <c r="G74">
+        <v>0.05701292644650251</v>
+      </c>
+      <c r="H74">
+        <v>-0.02582713251048664</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.250356424469371</v>
+        <v>0.2258358718943859</v>
       </c>
       <c r="C75">
-        <v>0.1219503620531088</v>
+        <v>0.1658366208222874</v>
       </c>
       <c r="D75">
-        <v>0.07462960699490878</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09892506768027867</v>
+      </c>
+      <c r="E75">
+        <v>0.1084810038256822</v>
+      </c>
+      <c r="F75">
+        <v>-0.00215311212093322</v>
+      </c>
+      <c r="G75">
+        <v>0.05326532170957526</v>
+      </c>
+      <c r="H75">
+        <v>-0.1100904993188791</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1421664518036282</v>
+        <v>0.1258229778552381</v>
       </c>
       <c r="C76">
-        <v>0.0866126114094387</v>
+        <v>0.1138336555753613</v>
       </c>
       <c r="D76">
-        <v>0.01042253288422727</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01089337853735577</v>
+      </c>
+      <c r="E76">
+        <v>0.1199633142228066</v>
+      </c>
+      <c r="F76">
+        <v>0.01811750745189838</v>
+      </c>
+      <c r="G76">
+        <v>0.04000305563406623</v>
+      </c>
+      <c r="H76">
+        <v>0.01251877105088898</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.06218789474619694</v>
+        <v>0.05874991592116351</v>
       </c>
       <c r="C77">
-        <v>0.06288667373893042</v>
+        <v>0.07290044172931121</v>
       </c>
       <c r="D77">
-        <v>-0.03995761938847519</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1293608119216009</v>
+      </c>
+      <c r="E77">
+        <v>0.2204941788377009</v>
+      </c>
+      <c r="F77">
+        <v>-0.289151290139591</v>
+      </c>
+      <c r="G77">
+        <v>-0.254609780475167</v>
+      </c>
+      <c r="H77">
+        <v>-0.4768505898374307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04162998322484508</v>
+        <v>0.04298556432866305</v>
       </c>
       <c r="C78">
-        <v>0.05456181183361251</v>
+        <v>0.06720645101449445</v>
       </c>
       <c r="D78">
-        <v>-0.1209047783705173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1336426300452874</v>
+      </c>
+      <c r="E78">
+        <v>0.01582184042045967</v>
+      </c>
+      <c r="F78">
+        <v>0.01140443160501906</v>
+      </c>
+      <c r="G78">
+        <v>0.01116311275627074</v>
+      </c>
+      <c r="H78">
+        <v>0.02307708816586207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.02717216790404398</v>
+        <v>0.04585253759293011</v>
       </c>
       <c r="C79">
-        <v>0.08220073989036308</v>
+        <v>0.0930721977450097</v>
       </c>
       <c r="D79">
-        <v>0.06463428367901614</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02483155060629031</v>
+      </c>
+      <c r="E79">
+        <v>0.2286459563090011</v>
+      </c>
+      <c r="F79">
+        <v>0.1396628355791487</v>
+      </c>
+      <c r="G79">
+        <v>0.7410364948534758</v>
+      </c>
+      <c r="H79">
+        <v>-0.3023615789491469</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03306264430378839</v>
+        <v>0.02483032738806939</v>
       </c>
       <c r="C80">
-        <v>0.03326937421917855</v>
+        <v>0.04939018010886074</v>
       </c>
       <c r="D80">
-        <v>-0.02251994389867709</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02833739782731758</v>
+      </c>
+      <c r="E80">
+        <v>0.01762321835872343</v>
+      </c>
+      <c r="F80">
+        <v>-0.01642734906891997</v>
+      </c>
+      <c r="G80">
+        <v>-0.0448166252104658</v>
+      </c>
+      <c r="H80">
+        <v>0.03280019305356784</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1463184249526394</v>
+        <v>0.1262098524047661</v>
       </c>
       <c r="C81">
-        <v>0.09510880220659719</v>
+        <v>0.1200945218475662</v>
       </c>
       <c r="D81">
-        <v>0.06245982450412681</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07323278813550747</v>
+      </c>
+      <c r="E81">
+        <v>0.1141344810583037</v>
+      </c>
+      <c r="F81">
+        <v>0.02707027492864637</v>
+      </c>
+      <c r="G81">
+        <v>0.04331346403066347</v>
+      </c>
+      <c r="H81">
+        <v>-0.004425158772058128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.3172209841833624</v>
+        <v>0.2540557023313162</v>
       </c>
       <c r="C82">
-        <v>0.2550550071754781</v>
+        <v>0.2630767847018032</v>
       </c>
       <c r="D82">
-        <v>0.2301615661199099</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2424671949254645</v>
+      </c>
+      <c r="E82">
+        <v>-0.01311052537844908</v>
+      </c>
+      <c r="F82">
+        <v>0.04226358060868028</v>
+      </c>
+      <c r="G82">
+        <v>0.02801455502203027</v>
+      </c>
+      <c r="H82">
+        <v>0.4088362905779773</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02890799205965975</v>
+        <v>0.02107591441910962</v>
       </c>
       <c r="C83">
-        <v>0.05142285866873626</v>
+        <v>0.05176172733281065</v>
       </c>
       <c r="D83">
-        <v>-0.04751693582672838</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04537164086976078</v>
+      </c>
+      <c r="E83">
+        <v>0.01740146342401246</v>
+      </c>
+      <c r="F83">
+        <v>-0.05282631740353605</v>
+      </c>
+      <c r="G83">
+        <v>-0.04426552656592063</v>
+      </c>
+      <c r="H83">
+        <v>-0.01869232373886338</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0006946831964262007</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004617476052207532</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01846075264788337</v>
+      </c>
+      <c r="E84">
+        <v>0.01919866928752465</v>
+      </c>
+      <c r="F84">
+        <v>0.009596093639075405</v>
+      </c>
+      <c r="G84">
+        <v>-0.00662674113669681</v>
+      </c>
+      <c r="H84">
+        <v>0.005951028844987939</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1794372512454295</v>
+        <v>0.1555502859364062</v>
       </c>
       <c r="C85">
-        <v>0.09346646487416994</v>
+        <v>0.1345123597728582</v>
       </c>
       <c r="D85">
-        <v>0.03576779488361869</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.06148503862902917</v>
+      </c>
+      <c r="E85">
+        <v>0.05622043176467226</v>
+      </c>
+      <c r="F85">
+        <v>0.03456396169242269</v>
+      </c>
+      <c r="G85">
+        <v>0.09842287704837281</v>
+      </c>
+      <c r="H85">
+        <v>-0.06686774056164889</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01679021973203701</v>
+        <v>0.02022025394824735</v>
       </c>
       <c r="C86">
-        <v>0.03415826984120401</v>
+        <v>0.0249957365460153</v>
       </c>
       <c r="D86">
-        <v>-0.1292027893584079</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1202279752895469</v>
+      </c>
+      <c r="E86">
+        <v>0.00345918308803971</v>
+      </c>
+      <c r="F86">
+        <v>-0.01846721121304808</v>
+      </c>
+      <c r="G86">
+        <v>-0.007769495113138592</v>
+      </c>
+      <c r="H86">
+        <v>0.05107143231307692</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02850166781255241</v>
+        <v>0.03524734011727118</v>
       </c>
       <c r="C87">
-        <v>0.006345602231060194</v>
+        <v>0.02508445966049097</v>
       </c>
       <c r="D87">
-        <v>-0.09971344494647934</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1373884203402492</v>
+      </c>
+      <c r="E87">
+        <v>0.07439133404903313</v>
+      </c>
+      <c r="F87">
+        <v>-0.008452820839953282</v>
+      </c>
+      <c r="G87">
+        <v>-0.02163087335593875</v>
+      </c>
+      <c r="H87">
+        <v>0.0282355227129415</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07743138828921561</v>
+        <v>0.0694065583364579</v>
       </c>
       <c r="C88">
-        <v>0.03359937199243783</v>
+        <v>0.05349140040247699</v>
       </c>
       <c r="D88">
-        <v>-0.04722035821708193</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02753252485683464</v>
+      </c>
+      <c r="E88">
+        <v>-0.002248462136636497</v>
+      </c>
+      <c r="F88">
+        <v>0.01944143484850189</v>
+      </c>
+      <c r="G88">
+        <v>0.007762817470699762</v>
+      </c>
+      <c r="H88">
+        <v>0.03652496613775368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2034420277755241</v>
+        <v>0.2829963537705995</v>
       </c>
       <c r="C89">
-        <v>-0.3956232437680239</v>
+        <v>-0.3538825657766138</v>
       </c>
       <c r="D89">
-        <v>0.03121024304337643</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.003616525669950876</v>
+      </c>
+      <c r="E89">
+        <v>0.04202425786035133</v>
+      </c>
+      <c r="F89">
+        <v>-0.04385377950035318</v>
+      </c>
+      <c r="G89">
+        <v>0.04293660126717603</v>
+      </c>
+      <c r="H89">
+        <v>0.0851326574297762</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1897989872573893</v>
+        <v>0.2402598685595441</v>
       </c>
       <c r="C90">
-        <v>-0.301818908379933</v>
+        <v>-0.250212732601234</v>
       </c>
       <c r="D90">
-        <v>0.01418844679226296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01862227643750241</v>
+      </c>
+      <c r="E90">
+        <v>0.05246953290428922</v>
+      </c>
+      <c r="F90">
+        <v>0.005259166115416559</v>
+      </c>
+      <c r="G90">
+        <v>-0.05650111940988145</v>
+      </c>
+      <c r="H90">
+        <v>0.03821313875681667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1880202608438775</v>
+        <v>0.157338073022088</v>
       </c>
       <c r="C91">
-        <v>0.1392288608443472</v>
+        <v>0.1580616112152333</v>
       </c>
       <c r="D91">
-        <v>0.08154207949248404</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08576500264919062</v>
+      </c>
+      <c r="E91">
+        <v>0.1100364716304849</v>
+      </c>
+      <c r="F91">
+        <v>0.02276856090402401</v>
+      </c>
+      <c r="G91">
+        <v>0.0918978386073265</v>
+      </c>
+      <c r="H91">
+        <v>-0.08177412239694862</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1671415491426282</v>
+        <v>0.2255594523591787</v>
       </c>
       <c r="C92">
-        <v>-0.2990578829247094</v>
+        <v>-0.2703980740121396</v>
       </c>
       <c r="D92">
-        <v>-0.008736999659042934</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03430860784243875</v>
+      </c>
+      <c r="E92">
+        <v>0.09366041248561653</v>
+      </c>
+      <c r="F92">
+        <v>-0.008629494735484345</v>
+      </c>
+      <c r="G92">
+        <v>-0.02396308522481343</v>
+      </c>
+      <c r="H92">
+        <v>0.03700317348260145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2146255899524843</v>
+        <v>0.2630756446011265</v>
       </c>
       <c r="C93">
-        <v>-0.323120271280934</v>
+        <v>-0.264706921812023</v>
       </c>
       <c r="D93">
-        <v>-0.002109138418575944</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0002122237329699556</v>
+      </c>
+      <c r="E93">
+        <v>0.006190069576751277</v>
+      </c>
+      <c r="F93">
+        <v>0.01905641865532309</v>
+      </c>
+      <c r="G93">
+        <v>0.009080327488696997</v>
+      </c>
+      <c r="H93">
+        <v>-0.003942683438782675</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.4001913314880681</v>
+        <v>0.3362672065148733</v>
       </c>
       <c r="C94">
-        <v>0.2065132234020899</v>
+        <v>0.2639556676895444</v>
       </c>
       <c r="D94">
-        <v>0.450447801992542</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4289435759305637</v>
+      </c>
+      <c r="E94">
+        <v>0.07885482209159668</v>
+      </c>
+      <c r="F94">
+        <v>-0.01805372666184101</v>
+      </c>
+      <c r="G94">
+        <v>-0.4431780190656839</v>
+      </c>
+      <c r="H94">
+        <v>-0.1240713322172223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07899292808259283</v>
+        <v>0.06793359428836229</v>
       </c>
       <c r="C95">
-        <v>0.0612944010466427</v>
+        <v>0.06888763326078159</v>
       </c>
       <c r="D95">
-        <v>-0.1029151015496111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08110147348991441</v>
+      </c>
+      <c r="E95">
+        <v>0.0001103248772633844</v>
+      </c>
+      <c r="F95">
+        <v>-0.9021796835868556</v>
+      </c>
+      <c r="G95">
+        <v>0.1754647741795781</v>
+      </c>
+      <c r="H95">
+        <v>0.06783140580620957</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1723647262985448</v>
+        <v>0.1626636671098434</v>
       </c>
       <c r="C98">
-        <v>0.01745227553499892</v>
+        <v>0.06745420015079931</v>
       </c>
       <c r="D98">
-        <v>-0.180344408863557</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1256920183636528</v>
+      </c>
+      <c r="E98">
+        <v>-0.3103857799487518</v>
+      </c>
+      <c r="F98">
+        <v>0.05140335472585791</v>
+      </c>
+      <c r="G98">
+        <v>0.05666519818309348</v>
+      </c>
+      <c r="H98">
+        <v>-0.05944007254920351</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004047646423922958</v>
+        <v>0.005258288660186379</v>
       </c>
       <c r="C101">
-        <v>0.0155879038000013</v>
+        <v>0.0214307821334106</v>
       </c>
       <c r="D101">
-        <v>-0.06960071252290088</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.08820200530839499</v>
+      </c>
+      <c r="E101">
+        <v>0.0311177918327844</v>
+      </c>
+      <c r="F101">
+        <v>0.01216426165104775</v>
+      </c>
+      <c r="G101">
+        <v>0.001328407255335748</v>
+      </c>
+      <c r="H101">
+        <v>0.1100285957752386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1303986465382949</v>
+        <v>0.1050310413744315</v>
       </c>
       <c r="C102">
-        <v>0.1102726385564752</v>
+        <v>0.119397603188928</v>
       </c>
       <c r="D102">
-        <v>0.04737781787320324</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0649795600632133</v>
+      </c>
+      <c r="E102">
+        <v>0.02589360084332547</v>
+      </c>
+      <c r="F102">
+        <v>-0.02406413418396191</v>
+      </c>
+      <c r="G102">
+        <v>0.0304462189470234</v>
+      </c>
+      <c r="H102">
+        <v>0.03015725880944667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
